--- a/output/fit_clients/fit_round_24.xlsx
+++ b/output/fit_clients/fit_round_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>10089298812.58428</v>
+        <v>4247218957.994667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1233197938838038</v>
+        <v>0.2941805078469347</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1167868293684883</v>
+        <v>0.6455651623714023</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2625242152260007</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.422534800122687</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7455890989817013</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.48924717951134</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>5412394826.908723</v>
+        <v>5339701124.317845</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2685985587696514</v>
+        <v>0.2948205064943805</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.688834688773634</v>
+        <v>0.6474492756193894</v>
       </c>
       <c r="I3" t="n">
-        <v>2.687814905598816</v>
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9840647256395604</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5567111406511116</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.445030947158583</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.899282684404249</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.5406227409264</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>8578424795.749961</v>
+        <v>12921907332.12973</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1731313341740566</v>
+        <v>0.1013546194332708</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3129241314656106</v>
+        <v>0.07789863312945827</v>
       </c>
       <c r="I4" t="n">
-        <v>2.745929822476629</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.298404266647113</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7573520156089895</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.848636045532677</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>6819498426.549594</v>
+        <v>11357880819.38002</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2127930779117758</v>
+        <v>0.0947861055350258</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.469095720777132</v>
+        <v>0.0585613671763769</v>
       </c>
       <c r="I5" t="n">
-        <v>2.682971995858999</v>
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.9831342568584275</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0993874238414218</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.822521452397222</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7185767029372035</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11.54901260634685</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5088733144.990664</v>
+        <v>11470173477.77832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2403850025431515</v>
+        <v>0.1173797817974049</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5777413403530469</v>
+        <v>0.1250756401933188</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26163884849486</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.374512901955171</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7643083564584618</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.911654227214065</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>7718856560.603097</v>
+        <v>7254742735.294012</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1523679188447191</v>
+        <v>0.2209680947335526</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2311663652674991</v>
+        <v>0.4300327108349001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2112753954323721</v>
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.9867540861153993</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3919536384708446</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.750256885110026</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8390515340356213</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.0307737956024</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>9609201781.944906</v>
+        <v>10570203603.83946</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1591936348838315</v>
+        <v>0.1139920710290133</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2580432199279147</v>
+        <v>0.1151024460865044</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82825928805353</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.278737890494925</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7366080804998516</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.453423719502107</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>7639964079.523717</v>
+        <v>7001776210.88625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1522270455586361</v>
+        <v>0.1904187551620193</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2306116643666864</v>
+        <v>0.340097496700152</v>
       </c>
       <c r="I9" t="n">
-        <v>2.150251924479053</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.58395311180907</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7618409430105586</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.652865748402103</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>4613378151.014655</v>
+        <v>10327702247.4259</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3139830776025623</v>
+        <v>0.1323935902916638</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8675402061897467</v>
+        <v>0.16927528905144</v>
       </c>
       <c r="I10" t="n">
-        <v>2.678129086119181</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.257692053238895</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.768217985373877</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.106667654238645</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>9938615906.38846</v>
+        <v>8533480105.367383</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1083218528757098</v>
+        <v>0.1777266474255999</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0577311232168965</v>
+        <v>0.3027327797175361</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2030790204309128</v>
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3676851037768942</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.090819132332694</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5444461665067865</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.798104197803035</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>4331205648.898455</v>
+        <v>7514507874.435308</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2927094353791381</v>
+        <v>0.1694087705105591</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7837733769134726</v>
+        <v>0.2782455059501599</v>
       </c>
       <c r="I12" t="n">
-        <v>2.343968314071761</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.330165889122851</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.750243306082683</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.674700232530808</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>9259087450.814287</v>
+        <v>8524403742.708332</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1338114016723148</v>
+        <v>0.168082879840787</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1580984538295849</v>
+        <v>0.2743421724255188</v>
       </c>
       <c r="I13" t="n">
-        <v>0.233752234373504</v>
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.3004521528897559</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.635596588475388</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.6424222717467525</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9.212848846459661</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>4393981342.72207</v>
+        <v>13253419291.65844</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3153534805729479</v>
+        <v>0.1215478673502693</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8729362878975414</v>
+        <v>0.1373462055144137</v>
       </c>
       <c r="I14" t="n">
-        <v>2.561899252363557</v>
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9828265210545341</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3646239882678594</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.087758016823659</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8919562281303225</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.75136654578279</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10112970198.14473</v>
+        <v>10791822153.23291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1453062513987811</v>
+        <v>0.0910199627136869</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2033604312794595</v>
+        <v>0.04747409439569865</v>
       </c>
       <c r="I15" t="n">
-        <v>2.716872364037723</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.882483722929128</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6556807618424041</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.231131513918954</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9821219865.588757</v>
+        <v>7484084769.929576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1592241953037934</v>
+        <v>0.1781473020397851</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2581635542578183</v>
+        <v>0.3039711587900176</v>
       </c>
       <c r="I16" t="n">
-        <v>2.891217114671159</v>
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5430529773554426</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.196520657171615</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6494150162550739</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.791779667929863</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>6251094165.665592</v>
+        <v>13881217203.65101</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1856298656279234</v>
+        <v>0.1034077702942691</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.362138193613718</v>
+        <v>0.08394297205542599</v>
       </c>
       <c r="I17" t="n">
-        <v>0.23271461334537</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.579438804068802</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7806139725052611</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.032840646036419</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>5462457731.93314</v>
+        <v>10197904924.42983</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2234590728023853</v>
+        <v>0.1076225379755012</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5110940097245471</v>
+        <v>0.09635096644274295</v>
       </c>
       <c r="I18" t="n">
-        <v>2.256795938755042</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.330200075417208</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7138275336575871</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.946350597734535</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>4734763543.418516</v>
+        <v>10273520314.75347</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.277718996512044</v>
+        <v>0.1274825921275679</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7247472110990617</v>
+        <v>0.1548176386505495</v>
       </c>
       <c r="I19" t="n">
-        <v>2.431140689388479</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.670639720587074</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7573520156089895</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.476400591592716</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5651252383.10285</v>
+        <v>5757827283.006078</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2711510734473088</v>
+        <v>0.2570336478080907</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6988854388512619</v>
+        <v>0.5362072888827063</v>
       </c>
       <c r="I20" t="n">
-        <v>2.833102197793347</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8.915294451224661</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7884771207172563</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.854247963120464</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10064713442.66883</v>
+        <v>13185456019.61404</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1405375928542014</v>
+        <v>0.07489388524227211</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1845834206488673</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.615171259501551</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.213278858371977</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.375829900327747</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.303319148182963</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8222315465.742414</v>
+        <v>4543520242.232078</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1745768240078577</v>
+        <v>0.3482127239787012</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3186158742737735</v>
+        <v>0.8046323957761309</v>
       </c>
       <c r="I22" t="n">
-        <v>2.653914537420093</v>
+        <v>10</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3456865389672782</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.929078310211176</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.5185131020906932</v>
+      </c>
+      <c r="N22" t="n">
+        <v>7.441183731602688</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>5907864373.050745</v>
+        <v>5528954240.707512</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2119324921728777</v>
+        <v>0.2548821637235449</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4657070890651397</v>
+        <v>0.529873463518068</v>
       </c>
       <c r="I23" t="n">
-        <v>2.314910855632855</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.641307435835495</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7759008810307068</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.87671018477864</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>5149744473.421832</v>
+        <v>7452902957.750345</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2670384437708303</v>
+        <v>0.1999801846943525</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.682691599340001</v>
+        <v>0.3682457062681905</v>
       </c>
       <c r="I24" t="n">
-        <v>2.542527613404286</v>
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.984366451660271</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3066623064545099</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.641806742040143</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.9100872432598877</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.55993812315761</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>8678159772.418371</v>
+        <v>6243741019.680507</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1524277018042701</v>
+        <v>0.2068246049811462</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2314017659061743</v>
+        <v>0.3883952221907736</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2296222442703303</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.502233711271295</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7538172132769856</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.574110554268417</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>4870556225.205506</v>
+        <v>9780744866.365488</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2248008172729393</v>
+        <v>0.1582762367438439</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5163772460795104</v>
+        <v>0.2454720705105018</v>
       </c>
       <c r="I26" t="n">
-        <v>2.024336271243794</v>
+        <v>14</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9841896946194149</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3341544558450053</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.517519002942424</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7789503430883966</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13.06148785882551</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>11616692806.74146</v>
+        <v>12849182317.26464</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1260461160813571</v>
+        <v>0.1196637958770379</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1275219617767556</v>
+        <v>0.1317996250067249</v>
       </c>
       <c r="I27" t="n">
-        <v>2.707186544558087</v>
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9855072971403553</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3546735872445516</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.817840994490516</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8377850756544343</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.93786051859817</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>6313748212.957385</v>
+        <v>11241332415.88989</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1825431678815949</v>
+        <v>0.1346822034957274</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3499840509225592</v>
+        <v>0.1760128133798176</v>
       </c>
       <c r="I28" t="n">
-        <v>2.130880285519782</v>
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.4054813749558649</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.293801181463337</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.5903243764358128</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8.51268634725292</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10764115870.7056</v>
+        <v>7975331560.721082</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1267825622087569</v>
+        <v>0.20297375822876</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1304217828970499</v>
+        <v>0.3770585866977211</v>
       </c>
       <c r="I29" t="n">
-        <v>2.523155974445015</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.767097704361766</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4732231115390754</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.697364526419741</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>4975971805.155588</v>
+        <v>5610268879.707673</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3095277425817008</v>
+        <v>0.2227075130960753</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.849996934372842</v>
+        <v>0.4351534422516</v>
       </c>
       <c r="I30" t="n">
-        <v>0.2250167750825859</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.258318934799529</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7455890989817013</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.653463044834497</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7991946345.957305</v>
+        <v>5278882338.643736</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1841975804485543</v>
+        <v>0.1860756097572669</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3564984452887675</v>
+        <v>0.3273115668740706</v>
       </c>
       <c r="I31" t="n">
-        <v>2.72171527377754</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.350701740912037</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5787608848426378</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.224515955940718</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>9472986040.293463</v>
+        <v>12541140824.20868</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1238771718873605</v>
+        <v>0.08291891818905682</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1189815540694085</v>
+        <v>0.02362516069512745</v>
       </c>
       <c r="I32" t="n">
-        <v>2.169623563438324</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.035279408991887</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.2787459731516181</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.539640054040475</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6587179283.358119</v>
+        <v>9886606548.547764</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1666152328315689</v>
+        <v>0.1375055640501534</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2872664117874043</v>
+        <v>0.1843245981713456</v>
       </c>
       <c r="I33" t="n">
-        <v>2.029179180983611</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.367495018155756</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7667573223751791</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.967651429347827</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10081747666.4282</v>
+        <v>4500147921.413402</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1395206938856405</v>
+        <v>0.2467966341095688</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1805792919060766</v>
+        <v>0.5060702046776254</v>
       </c>
       <c r="I34" t="n">
-        <v>2.600642530282098</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.65794533601511</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5308329189485099</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.958713042955088</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>10680453913.84344</v>
+        <v>13837516105.70502</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1162488851143973</v>
+        <v>0.1156600128067896</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.08894450685998993</v>
+        <v>0.1200127552143778</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2468892527868932</v>
+        <v>9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9845712205004997</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.3287677354201214</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.051901763975921</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8899863200826502</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.74782463767708</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4445737167.41785</v>
+        <v>9188213010.767204</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3476229119720126</v>
+        <v>0.131992757305344</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.1680952635267464</v>
       </c>
       <c r="I36" t="n">
-        <v>2.857316746492435</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.314145055746694</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7382115563519281</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.450086071291869</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>10567600321.73355</v>
+        <v>9254193129.741125</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1137722825803058</v>
+        <v>0.106992517458699</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.07919266749559589</v>
+        <v>0.09449622814454789</v>
       </c>
       <c r="I37" t="n">
-        <v>2.222895570576318</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.597106044161744</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.4702253376193352</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.807400708224959</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>6811324831.926163</v>
+        <v>12469584291.77738</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1572866566249257</v>
+        <v>0.101039983412343</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2505343260314368</v>
+        <v>0.07697236571047256</v>
       </c>
       <c r="I38" t="n">
-        <v>1.980750083585434</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.354665334937929</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.747665983969886</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.598654344459792</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>4654579795.360232</v>
+        <v>10742112871.32426</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2504261611675277</v>
+        <v>0.1397220908008363</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6172792817826517</v>
+        <v>0.1908499047983936</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2401012804907308</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.049007666356014</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7921149431494857</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.793291196633701</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>10538461565.29081</v>
+        <v>10441234578.50793</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1322313955757684</v>
+        <v>0.1332118419083313</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1518770414567124</v>
+        <v>0.171684167128453</v>
       </c>
       <c r="I40" t="n">
-        <v>2.57642798158301</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.570359962676591</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7725615383179492</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.880870803682392</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10556116958.07145</v>
+        <v>13946401788.48253</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1213402347745502</v>
+        <v>0.08414261526360943</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.108992142017558</v>
+        <v>0.02722764310487829</v>
       </c>
       <c r="I41" t="n">
-        <v>2.368182862770849</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.419990203491018</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7301112829985946</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.182235456480875</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4915517612.205204</v>
+        <v>8050277112.338523</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2477900490023008</v>
+        <v>0.1405636680836305</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.606899359276738</v>
+        <v>0.1933274520776667</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2452069511766009</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.371372279968144</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.7212333368093277</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6.05329445621841</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>11239435099.90795</v>
+        <v>5307568459.626111</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1134970680163852</v>
+        <v>0.1865504755203382</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.07810898604847161</v>
+        <v>0.3287095399460279</v>
       </c>
       <c r="I43" t="n">
-        <v>2.358497043291214</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.844222352969089</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.622394942036138</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.60367648775367</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>10188773240.979</v>
+        <v>7821857410.775238</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1478243959677407</v>
+        <v>0.1972448011996026</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2132758460441561</v>
+        <v>0.3601929200609814</v>
       </c>
       <c r="I44" t="n">
-        <v>2.78467310039517</v>
+        <v>15</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9867567767748003</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.327383397974673</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.436713946392138</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7553049372886919</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.6693847993817</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>5529001437.018126</v>
+        <v>12563556386.65775</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2833052654883702</v>
+        <v>0.07839266284870854</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7467436344062097</v>
+        <v>0.01030016745559804</v>
       </c>
       <c r="I45" t="n">
-        <v>2.896060024410977</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.318797246387796</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.5796997626668607</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.275198006949419</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>5783884404.320587</v>
+        <v>12558859556.4016</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.185679696364221</v>
+        <v>0.1238900437585438</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3623344065017751</v>
+        <v>0.1442414163364444</v>
       </c>
       <c r="I46" t="n">
-        <v>1.985592993325252</v>
+        <v>8</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3684989802639024</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.256818786771374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6043055447284548</v>
+      </c>
+      <c r="N46" t="n">
+        <v>8.829292107797722</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>9904811082.610229</v>
+        <v>5392198497.430749</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1256167573134682</v>
+        <v>0.2035393189851864</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1258313240274559</v>
+        <v>0.3787235597691133</v>
       </c>
       <c r="I47" t="n">
-        <v>2.300382126413401</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.41770650723906</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7138275336575871</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.858844165912682</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>11084803405.58413</v>
+        <v>12537174476.33747</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1382381891615742</v>
+        <v>0.1218061033514562</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1755293172407797</v>
+        <v>0.1381064350444063</v>
       </c>
       <c r="I48" t="n">
-        <v>2.833102197793347</v>
+        <v>7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2355863984966745</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.323330152606434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.6337291567092942</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.351252981579449</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>7121347331.965767</v>
+        <v>9327982449.106625</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1618417900818576</v>
+        <v>0.1210290752753426</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2684705629301335</v>
+        <v>0.13581891631588</v>
       </c>
       <c r="I49" t="n">
-        <v>2.130880285519782</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.508613494430536</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7206699397694454</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.904785300958372</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5214749554.922238</v>
+        <v>8184932913.408237</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2657188605907389</v>
+        <v>0.1667334606694696</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6774956250069907</v>
+        <v>0.2703695725647005</v>
       </c>
       <c r="I50" t="n">
-        <v>2.561899252363557</v>
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.9802577392028491</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2722788127830449</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.160598619290516</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8406532668251819</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13.65246671721312</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>5764661004.253983</v>
+        <v>11924756144.80747</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2167428456032331</v>
+        <v>0.1129051566045033</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.484648276959869</v>
+        <v>0.1119026426575118</v>
       </c>
       <c r="I51" t="n">
-        <v>2.310067945893037</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.276414316597695</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7643083564584618</v>
+      </c>
+      <c r="N51" t="n">
+        <v>7.009752812571541</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9830967169.500893</v>
+        <v>11407481978.65444</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1425468751790315</v>
+        <v>0.09827750962901269</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1924951457641157</v>
+        <v>0.06883982750408364</v>
       </c>
       <c r="I52" t="n">
-        <v>2.590956710802463</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.309762901316472</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.6907068883399824</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.504374865483176</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>5487557794.600616</v>
+        <v>9526194958.337992</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2171863139505651</v>
+        <v>0.1451826176189548</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4863944724138607</v>
+        <v>0.2069253308325995</v>
       </c>
       <c r="I53" t="n">
-        <v>2.203523931617048</v>
+        <v>7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2064432452647268</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.294186999374487</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5881634479311166</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.469081959247847</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8647291094.22789</v>
+        <v>5358547596.765307</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1675117275706026</v>
+        <v>0.2972053697836645</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2907964383321314</v>
+        <v>0.6544701537664156</v>
       </c>
       <c r="I54" t="n">
-        <v>2.678129086119181</v>
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.9847939172038817</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.2997862103522995</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.0229202389081</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8880387356392436</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.73785447387677</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>4302435814.122301</v>
+        <v>11741505927.33412</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3451984397129188</v>
+        <v>0.1126594798134499</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9904534281586748</v>
+        <v>0.1111793866028403</v>
       </c>
       <c r="I55" t="n">
-        <v>2.745929822476629</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.188797896234</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5138557483340892</v>
+      </c>
+      <c r="N55" t="n">
+        <v>7.088317070447784</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>7756441265.191632</v>
+        <v>10852822142.17549</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1978952057418921</v>
+        <v>0.1153680032343199</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.4104340444394387</v>
+        <v>0.1191530985475629</v>
       </c>
       <c r="I56" t="n">
-        <v>2.837945107533165</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.440014419800129</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.7461095856608052</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.482177293415976</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>4015890384.330045</v>
+        <v>4269866316.002965</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.2719908975260095</v>
+        <v>0.2306607671319226</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7021923197080415</v>
+        <v>0.4585672906297985</v>
       </c>
       <c r="I57" t="n">
-        <v>2.019493361503976</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.020386322510486</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.656382923905422</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.107272155597954</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>10355446168.81951</v>
+        <v>4916585092.966825</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1100324053087026</v>
+        <v>0.3292494667316282</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0644665732220137</v>
+        <v>0.7488058337251131</v>
       </c>
       <c r="I58" t="n">
-        <v>2.106665736820694</v>
+        <v>9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.9824224467737197</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4568326557107924</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.179966684266592</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8938024054532174</v>
+      </c>
+      <c r="N58" t="n">
+        <v>14.69608142479776</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>10038798410.85019</v>
+        <v>5592336091.036583</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1356818559607518</v>
+        <v>0.2824387061663937</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1654635313937858</v>
+        <v>0.6109980829098478</v>
       </c>
       <c r="I59" t="n">
-        <v>2.518313064705198</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.9856715529975523</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.821427880743048</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8501638513468069</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.18184914619309</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10426803304.45026</v>
+        <v>7071770287.753221</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1472131481894228</v>
+        <v>0.1437155448558691</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2108690043875132</v>
+        <v>0.2026063666602179</v>
       </c>
       <c r="I60" t="n">
-        <v>2.837945107533165</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.210795837462236</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6954044222564705</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.697292607667174</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>11298634401.95445</v>
+        <v>7981763326.200391</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09366030640100594</v>
+        <v>0.125689816773554</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>0.1495398278166621</v>
       </c>
       <c r="I61" t="n">
-        <v>1.956535534886346</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.249143417869503</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6923241396684141</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.597339375498779</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>5720902308.678371</v>
+        <v>12653593991.82692</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2632712758816444</v>
+        <v>0.1204784175140027</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.6678580458697339</v>
+        <v>0.1341978166660791</v>
       </c>
       <c r="I62" t="n">
-        <v>2.78467310039517</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>8.882130860544253</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7961614389576555</v>
+      </c>
+      <c r="N62" t="n">
+        <v>7.041097918608857</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>4688085612.803822</v>
+        <v>5900750315.985978</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3134494357327113</v>
+        <v>0.2645691406007476</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8654389445939651</v>
+        <v>0.5583912760792726</v>
       </c>
       <c r="I63" t="n">
-        <v>2.716872364037723</v>
+        <v>8</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.485243373806051</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.373563180313523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.6060009463864187</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.746455747414851</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>7694737162.083279</v>
+        <v>9274211966.830666</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1776956835819731</v>
+        <v>0.1344404941853067</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.3308966569783885</v>
+        <v>0.1753012373229883</v>
       </c>
       <c r="I64" t="n">
-        <v>2.527998884184833</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.554163031203993</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7450677631129012</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.347192231054033</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>5719157941.775051</v>
+        <v>12399124510.46342</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2111392625091968</v>
+        <v>0.08091106506377881</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4625836777979674</v>
+        <v>0.01771417527594453</v>
       </c>
       <c r="I65" t="n">
-        <v>2.232581390055954</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.76813033067702</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6263353376274824</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.758576421872628</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>3968485786.8574</v>
+        <v>3673342280.267927</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3102224289367822</v>
+        <v>0.3315825907492509</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8527323227325553</v>
+        <v>0.7556743949140216</v>
       </c>
       <c r="I66" t="n">
-        <v>2.276167577714313</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.729926021819756</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7392760419855212</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.055594817890668</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7105560021.068495</v>
+        <v>6543494187.185728</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1692055244674726</v>
+        <v>0.154117222565109</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2974659119464128</v>
+        <v>0.2332282107086186</v>
       </c>
       <c r="I67" t="n">
-        <v>2.222895570576318</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.273993314813598</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.3952413933900704</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4.63083455298781</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8010707237.668388</v>
+        <v>4292976470.439908</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1458358051716833</v>
+        <v>0.3130105835083472</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2054455956354934</v>
+        <v>0.7009996467345494</v>
       </c>
       <c r="I68" t="n">
-        <v>2.159937743958689</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.893466572115327</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.3572277282752571</v>
+      </c>
+      <c r="N68" t="n">
+        <v>4.251087993389814</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>9766210908.768265</v>
+        <v>13718337631.82323</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1459059376570148</v>
+        <v>0.08974216359452433</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2057217484382803</v>
+        <v>0.04371233918216983</v>
       </c>
       <c r="I69" t="n">
-        <v>2.634542898460822</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.250543727802576</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7419217245480235</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.587890763157894</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>6493680974.287557</v>
+        <v>9156738736.996086</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2045112371948181</v>
+        <v>0.115282766093892</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4364852476787918</v>
+        <v>0.118902166102406</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2512594997953355</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.235297304010023</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7044592596989551</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.853887889969078</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>8827489703.849371</v>
+        <v>3620354886.786033</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1237368342127537</v>
+        <v>0.4145755090138227</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.118428962185689</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.019493361503976</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.0475090700381</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7921149431494857</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.794789792951615</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>6198140412.598006</v>
+        <v>8606698693.171104</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1973584089049802</v>
+        <v>0.1619105686952502</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.408320359884561</v>
+        <v>0.2561713008988095</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2039898340542073</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.488152696130422</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7730406508353522</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.972660320576622</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>4458411031.964731</v>
+        <v>6410678200.819044</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2990458933555202</v>
+        <v>0.2333094320362094</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8087237351055195</v>
+        <v>0.4663647831019498</v>
       </c>
       <c r="I73" t="n">
-        <v>2.465041057567203</v>
+        <v>7</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9845652548136764</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.5109523591365258</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.598696113246286</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8956094359953105</v>
+      </c>
+      <c r="N73" t="n">
+        <v>14.31349260665993</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>4016424309.265626</v>
+        <v>7064590309.187293</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2954328473868236</v>
+        <v>0.1438616077535737</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.7944970501942779</v>
+        <v>0.2030363660699087</v>
       </c>
       <c r="I74" t="n">
-        <v>2.193838112137412</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4.885842530984982</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6302187245693578</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.718531960402172</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>8022671205.984919</v>
+        <v>6998888582.305635</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1854511398759668</v>
+        <v>0.1482061655649747</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3614344453136293</v>
+        <v>0.2158264539267747</v>
       </c>
       <c r="I75" t="n">
-        <v>2.750772732216447</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.342095765579082</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7002676533457067</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.663257301335053</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>5175450081.138206</v>
+        <v>6375944933.013629</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2247165254744813</v>
+        <v>0.2477267584011965</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.516045339741298</v>
+        <v>0.5088084284334479</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2469163028150797</v>
+        <v>8</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2311353438507923</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.119455150358264</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.6118493760738772</v>
+      </c>
+      <c r="N76" t="n">
+        <v>9.117532371119282</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>5207638377.539683</v>
+        <v>14625702791.94126</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2615547972521678</v>
+        <v>0.08220459742026656</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.66109926094698</v>
+        <v>0.02152224808873145</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2788903763724698</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.306841266168211</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7360717744144091</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.41459422211997</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>11203083801.55282</v>
+        <v>10508597121.90094</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117610509908402</v>
+        <v>0.1141618244646327</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.07127326698013953</v>
+        <v>0.1156021888566156</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2096871065429634</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.232689338564295</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7355345550124475</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.478001761684654</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>9166185795.921038</v>
+        <v>4748896313.694599</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1214508165976074</v>
+        <v>0.2939914409109976</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1094275676299572</v>
+        <v>0.6450085619470465</v>
       </c>
       <c r="I79" t="n">
-        <v>2.058236639422517</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.534575411603756</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7735190714865956</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.935806018128156</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>7212892045.334668</v>
+        <v>11948070435.46417</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1677771097077123</v>
+        <v>0.1232079429018541</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.2918414037376211</v>
+        <v>0.1422333569980668</v>
       </c>
       <c r="I80" t="n">
-        <v>2.237424299795772</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.691357972284345</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7871027866878998</v>
+      </c>
+      <c r="N80" t="n">
+        <v>7.05069776147365</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>9157817557.24032</v>
+        <v>7132967140.857821</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1212757682775548</v>
+        <v>0.1421153231161654</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1087382995400389</v>
+        <v>0.1978954207988078</v>
       </c>
       <c r="I81" t="n">
-        <v>2.053393729682699</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.294323412960858</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.3997616295437895</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4.700909177914933</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9139544628.315758</v>
+        <v>13341413644.23792</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1255306327238126</v>
+        <v>0.0973822920602664</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1254922009133975</v>
+        <v>0.06620436680766292</v>
       </c>
       <c r="I82" t="n">
-        <v>0.236276597701296</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.757303259442766</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-0.3274516251033786</v>
+      </c>
+      <c r="N82" t="n">
+        <v>-9.306335761510336</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>7534088709.861276</v>
+        <v>10254104886.23324</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.15193256597865</v>
+        <v>0.1450944315966068</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2294521252316865</v>
+        <v>0.2066657170761387</v>
       </c>
       <c r="I83" t="n">
-        <v>2.116351556300329</v>
+        <v>8</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9837661706768094</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4420726200241457</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3.330392426531617</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8766646378161692</v>
+      </c>
+      <c r="N83" t="n">
+        <v>14.20290032979177</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>5424480556.284853</v>
+        <v>10485588377.37298</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2539965118694488</v>
+        <v>0.1511341941878737</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.631337850341962</v>
+        <v>0.2244463745170867</v>
       </c>
       <c r="I84" t="n">
-        <v>2.547370523144104</v>
+        <v>14</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.9872029653396954</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.375188416762828</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.558552963860247</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.7933147635558249</v>
+      </c>
+      <c r="N84" t="n">
+        <v>13.30774230725625</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>6189530330.236344</v>
+        <v>12166962936.09563</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2044040989377768</v>
+        <v>0.1033378014385132</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.436063381409148</v>
+        <v>0.08373698841998817</v>
       </c>
       <c r="I85" t="n">
-        <v>2.339125404331943</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.25959807717925</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7471480248347903</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.683362419516556</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5218760743.517191</v>
+        <v>10605598031.37621</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2579858564454163</v>
+        <v>0.1454722973127617</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.6470462439733702</v>
+        <v>0.2077781284923332</v>
       </c>
       <c r="I86" t="n">
-        <v>2.489255606266291</v>
+        <v>11</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.9842294760745921</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4508902006053683</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.914057607851332</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8387507874771497</v>
+      </c>
+      <c r="N86" t="n">
+        <v>13.86095814169166</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8191910069.151759</v>
+        <v>9294394184.044319</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1326976054209247</v>
+        <v>0.1674038812202567</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.153712783549955</v>
+        <v>0.272343245863077</v>
       </c>
       <c r="I87" t="n">
-        <v>2.00980754202434</v>
+        <v>10</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2744080797971826</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.857799851041081</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.5060081189035732</v>
+      </c>
+      <c r="N87" t="n">
+        <v>7.262362527030383</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>9454288105.875034</v>
+        <v>9310574844.151049</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1243992246512088</v>
+        <v>0.124350042761035</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1210371825453982</v>
+        <v>0.1455956226587758</v>
       </c>
       <c r="I88" t="n">
-        <v>2.174466473178142</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.41741971417456</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.726811665271142</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6.11881359124828</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6487560355.13864</v>
+        <v>12031729742.12892</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2055116926879839</v>
+        <v>0.1258345601546157</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.4404246287971908</v>
+        <v>0.1499659426575376</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2643479910840672</v>
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.9828272296951699</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2933564871627748</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.628500922748407</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.9152671466678608</v>
+      </c>
+      <c r="N89" t="n">
+        <v>14.67684201060881</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>9541981603.323854</v>
+        <v>10709742200.40449</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1251775458866875</v>
+        <v>0.1054140304103082</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1241018905709311</v>
+        <v>0.08984926776186784</v>
       </c>
       <c r="I90" t="n">
-        <v>2.208366841356865</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.685062931036207</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7206699397694454</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.728335864352701</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7844833146.0826</v>
+        <v>8589059395.925519</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1606059130306879</v>
+        <v>0.1384555636632498</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2636041888102473</v>
+        <v>0.1871213335453363</v>
       </c>
       <c r="I91" t="n">
-        <v>2.329439584852308</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.207189812523767</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7333764681329755</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.460339550135744</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>6065749946.460408</v>
+        <v>6113680430.133946</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2370762267968453</v>
+        <v>0.1623815345510707</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.5647127460886797</v>
+        <v>0.2575577929044448</v>
       </c>
       <c r="I92" t="n">
-        <v>2.65875744715991</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.464008706875279</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.4717467358631831</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5.970926010388384</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>10911248947.6156</v>
+        <v>6399990678.232024</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1154704283669862</v>
+        <v>0.1620749923164802</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.08587926524435595</v>
+        <v>0.2566553530515411</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2561792488024499</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.590771977774565</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7002676533457067</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.414581089139569</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>5251070130.95604</v>
+        <v>14298701613.54926</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2264687064431735</v>
+        <v>0.09379366856142832</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.5229447057513158</v>
+        <v>0.0556396990490927</v>
       </c>
       <c r="I94" t="n">
-        <v>2.19868102187723</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.650575497710081</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7633236236653883</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.615896975597686</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9919118925.091827</v>
+        <v>6001157488.668775</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1539556468203009</v>
+        <v>0.2199863213876181</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2374181832153107</v>
+        <v>0.4271424357148222</v>
       </c>
       <c r="I95" t="n">
-        <v>2.823416378313712</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.637158019553207</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7593547408785931</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.549936798018656</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>8592757154.272387</v>
+        <v>6075263513.598794</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1813779933516547</v>
+        <v>0.2492085185459141</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3453960741717281</v>
+        <v>0.5131706312758193</v>
       </c>
       <c r="I96" t="n">
-        <v>2.881531295191524</v>
+        <v>9</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.983576881331253</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2395778931028217</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.962711921658622</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.866478857990184</v>
+      </c>
+      <c r="N96" t="n">
+        <v>14.36686523814506</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6146980883.132147</v>
+        <v>4635765926.918396</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2552496322715943</v>
+        <v>0.327722802218772</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.6362721216663876</v>
+        <v>0.7443114354238293</v>
       </c>
       <c r="I97" t="n">
-        <v>2.900902934150795</v>
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.9874867436277223</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3671569053928296</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.40950742680968</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.7209052871572761</v>
+      </c>
+      <c r="N97" t="n">
+        <v>12.00859831633584</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>4123894407.602884</v>
+        <v>5259714599.854072</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.259150941893591</v>
+        <v>0.2106581923724038</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.6516338699569483</v>
+        <v>0.399681047278079</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1480150568744411</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.296447655307867</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7161253093765054</v>
+      </c>
+      <c r="N98" t="n">
+        <v>6.026058532222242</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>5475535035.128936</v>
+        <v>4803080747.427062</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2549768855541848</v>
+        <v>0.2274135471457816</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6351981575810207</v>
+        <v>0.4490076919971538</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1631884286483594</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.363553798271575</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7126721448364289</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.889889098457004</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4922697898.056352</v>
+        <v>4901846446.22322</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2367865292851365</v>
+        <v>0.2682527481074263</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.5635720367663072</v>
+        <v>0.5692355704092952</v>
       </c>
       <c r="I100" t="n">
-        <v>2.155094834218871</v>
+        <v>7</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2413480853146142</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.329091839424374</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.5634168757625722</v>
+      </c>
+      <c r="N100" t="n">
+        <v>7.939245675827068</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>6859883152.560456</v>
+        <v>9130211491.428522</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2478153158287368</v>
+        <v>0.1732831229030447</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.6069988496185511</v>
+        <v>0.2896513404768205</v>
       </c>
       <c r="I101" t="n">
-        <v>3.143048421141679</v>
+        <v>8</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.368669778590096</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.256989585097568</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.6126742901217936</v>
+      </c>
+      <c r="N101" t="n">
+        <v>8.996496217338304</v>
       </c>
     </row>
   </sheetData>
